--- a/data/financial_statements/sofp/FFIV.xlsx
+++ b/data/financial_statements/sofp/FFIV.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,1027 +593,1051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>659754000</v>
+      </c>
+      <c r="C2">
         <v>884566000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>738341000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>887134000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>858954000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>910607000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>767918900</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>643271000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1373344000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1209889000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1093571000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>821145000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1162218000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>972282000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>986486900</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1313777000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1132596000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1039412000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1084500000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1024673000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1004556000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1016928000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1014248000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1014624000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>973843000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>882395000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>810708000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>775005000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>791502000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>774342000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>797707000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>666467000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>654104000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>645379000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>611363000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>623760000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>578191000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>542143000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>551325000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>522848000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>485277000</v>
+      </c>
+      <c r="C3">
         <v>469979000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>455762000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>414218000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>419282000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>340536000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>382897000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>374404000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>346670000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>296183000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>304874000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>338655000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>354668000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>322029000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>320465000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>321484000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>325688000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>295352000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>297375000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>290919000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>291093000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>291924000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>295085000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>293872000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>313211000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>268175000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>263249000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>266185000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>279158000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>279434000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>261068000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>262624000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>255864000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>242242000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>243072000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>223472000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>220784000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>204205000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>205138000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>192796000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>59197000</v>
+      </c>
+      <c r="C4">
         <v>68365000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>43787000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>27883000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>20795000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>22055000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>22649000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>24571000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>26455000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>27898000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>28826000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>30942000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>32381000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>34401000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>36009000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>33463000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>31559000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>30568000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>31322000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>29512000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>29112000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>29834000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>31045000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>32548000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>33678000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>34051000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>33805000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>35179000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>33571000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>33717000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>30026000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>29343000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>27582000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>24471000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>23143000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>20710000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>19051000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>19026000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>18260000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>17963000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>510279000</v>
+      </c>
+      <c r="C5">
         <v>489314000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>451035000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>405596000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>388942000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>337902000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>293246000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>293402000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>283341000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>259506000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>238163000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>217989000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>188204000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>182874000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>161940000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>138736000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>129793000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>52326000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>55853000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>62125000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>56056000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>67538000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>51513000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>51022000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>52706000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>52579000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>50741000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>66939000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>51061000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>50519000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>50214000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>48858000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>44344000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>44466000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>44647000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>58753000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>32387000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>34655000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>48969000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>60239000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1714507000</v>
+      </c>
+      <c r="C6">
         <v>1912224000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1688925000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1734831000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1687973000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1611100000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1466711000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1335648000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2029810000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1793476000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1665434000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1408731000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1737471000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1511586000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1504901000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1807460000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1619636000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1417658000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1469050000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1407229000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1380817000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1406224000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1445901000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1444843000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1427496000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1288801000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1207963000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1193981000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1208133000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1188140000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1185508000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1052124000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1026857000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>998848000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>945123000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>950419000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>870943000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>816371000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>834309000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>804424000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>167709000</v>
+      </c>
+      <c r="C7">
         <v>168182000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>172060000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>178742000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>185355000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>191164000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>196780000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>207599000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>215649000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>229239000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>228293000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>232006000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>229800000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>223426000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>226002000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>208221000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>179224000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>145042000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>126108000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>117392000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>117310000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>122420000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>125139000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>126705000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>128667000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>123248000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>115135000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>107545000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>99946000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>95909000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>83507000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>68746000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>66636000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>66791000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>62650000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>61608000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>62157000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>63522000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>63720000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>63182000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>7812000</v>
+      </c>
+      <c r="C8">
         <v>9544000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>19112000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>34911000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>76991000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>132778000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>95222000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>19078000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>88753000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>102939000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>112928000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>204969000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>312044000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>358402000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>161619000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>301357000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>413690000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>411184000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>329412000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>350241000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>348210000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>284802000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>234587000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>200253000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>222999000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>276375000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>313488000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>319287000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>383479000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>397656000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>361665000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>467702000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>512538000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>482917000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>508581000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>541172000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>657018000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>728981000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>714331000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>662822000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>2259277000</v>
+      </c>
+      <c r="C9">
         <v>2259282000</v>
-      </c>
-      <c r="C9">
-        <v>2259951000</v>
       </c>
       <c r="D9">
         <v>2259951000</v>
       </c>
       <c r="E9">
+        <v>2259951000</v>
+      </c>
+      <c r="F9">
         <v>2260407000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2216553000</v>
-      </c>
-      <c r="G9">
-        <v>2209639000</v>
       </c>
       <c r="H9">
         <v>2209639000</v>
       </c>
       <c r="I9">
+        <v>2209639000</v>
+      </c>
+      <c r="J9">
         <v>1863892000</v>
-      </c>
-      <c r="J9">
-        <v>1858966000</v>
       </c>
       <c r="K9">
         <v>1858966000</v>
       </c>
       <c r="L9">
+        <v>1858966000</v>
+      </c>
+      <c r="M9">
         <v>1864991000</v>
-      </c>
-      <c r="M9">
-        <v>1065379000</v>
       </c>
       <c r="N9">
         <v>1065379000</v>
@@ -1508,7 +1646,7 @@
         <v>1065379000</v>
       </c>
       <c r="P9">
-        <v>555965000</v>
+        <v>1065379000</v>
       </c>
       <c r="Q9">
         <v>555965000</v>
@@ -1553,7 +1691,7 @@
         <v>555965000</v>
       </c>
       <c r="AE9">
-        <v>556957000</v>
+        <v>555965000</v>
       </c>
       <c r="AF9">
         <v>556957000</v>
@@ -1568,768 +1706,786 @@
         <v>556957000</v>
       </c>
       <c r="AJ9">
+        <v>556957000</v>
+      </c>
+      <c r="AK9">
         <v>517611000</v>
-      </c>
-      <c r="AK9">
-        <v>523727000</v>
       </c>
       <c r="AL9">
         <v>523727000</v>
       </c>
       <c r="AM9">
-        <v>447799000</v>
+        <v>523727000</v>
       </c>
       <c r="AN9">
         <v>447799000</v>
       </c>
+      <c r="AO9">
+        <v>447799000</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>208562000</v>
+      </c>
+      <c r="C10">
         <v>183365000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>171533000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>158357000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>148333000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>128193000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>128809000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>68624000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>47236000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>45173000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>47919000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>47230000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>29380000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>27701000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>25079000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>21551000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>23131000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>33441000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>35153000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>36982000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>39719000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>53303000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2050000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1992000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1956000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2044000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>700000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>680000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>664000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>6492000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3557000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1315000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1217000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>4434000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>25285000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>22834000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>25714000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>22389000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>33085000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>31165000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>503748000</v>
+      </c>
+      <c r="C11">
         <v>516122000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>492395000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>482805000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>490508000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>472558000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>434797000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>418215000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>367955000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>347447000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>343056000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>355614000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>197851000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>203781000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>194295000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>95682000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>100250000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>42186000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>45378000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>49337000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>51718000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>53775000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>54930000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>58159000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>60012000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>59890000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>60532000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>64682000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>67894000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>68128000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>71157000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>74435000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>72219000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>75003000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>76889000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>72556000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>75280000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>75564000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>54559000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>56517000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>3371061000</v>
+      </c>
+      <c r="C12">
         <v>3363970000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3332364000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3342342000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3398935000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3386180000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3318410000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3183544000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2869529000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2884444000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2907923000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3032246000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2137889000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1878689000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1672374000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1182776000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1272260000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1187818000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1092016000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1109917000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1112922000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1070265000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>972671000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>943074000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>969599100</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1017522000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1045820000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1048159000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1107948000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1124150000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1076843000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1169155000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1209567000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1186102000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1230362000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1215781000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1343896000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1414183000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1313494000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1261485000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>5085568000</v>
+      </c>
+      <c r="C13">
         <v>5276194000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5021289000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5077173000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5086908000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4997280000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>4785121000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4519192000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4899339000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4677920000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4573357000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4440977000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3875360000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3390275000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3177275000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2990236000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2891896000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2605476000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2561066000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2517146000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2493739000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2476489000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>2418572000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>2387917000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2397095000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>2306323000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2253783000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>2242140000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>2316081000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>2312290000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>2262351000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>2221279000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>2236424000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>2184950000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>2175485000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>2166200000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>2214839000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>2230554000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>2147803000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>2065909000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>71760000</v>
+      </c>
+      <c r="C14">
         <v>113178000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>73420000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>69131000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>58253000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>62096000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>49372000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>53567000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>57542000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>64472000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>54389000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>56200000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>52407000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>62627000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>55630000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>68156000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>66859000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>57757000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>44647000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>40271000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>46748000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>50760000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>44544000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>47289000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>49925000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>34117000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>37452000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>37243000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>37556000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>50814000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>48986000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>34683000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>41223000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>43772000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>36399000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>40371000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>38151000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>37313000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>28691000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>39100000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>330524000</v>
+      </c>
+      <c r="C15">
         <v>309819000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>291605000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>301206000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>314845000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>341487000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>334288000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>324865000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>305792000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>321398000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>301038000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>286902000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>250350000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>235869000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>213195000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>197295000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>184446000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>180979000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>163246000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>185924000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>176534000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>187379000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>178712000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>184234000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>198832000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>178353000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>135122000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>143511000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>145443000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>130401000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>115397000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>118617000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>132685000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>108772000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>94445000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>96070000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>125716000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>92608000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>89780000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>84966000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>349772000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>354591000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>359410000</v>
-      </c>
-      <c r="E16">
-        <v>19275000</v>
       </c>
       <c r="F16">
         <v>19275000</v>
@@ -2352,1951 +2508,1999 @@
       <c r="L16">
         <v>19275000</v>
       </c>
+      <c r="M16">
+        <v>19275000</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>1131195000</v>
+      </c>
+      <c r="C17">
         <v>1067182000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1049084000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1043482000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1039515000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>968669000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>952029000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>929397000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>936640000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>883134000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>888614000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>889629000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>847750000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>807030000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>803241000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>809336000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>796385000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>715697000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>736032000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>735976000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>721994000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>696404000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>686085000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>684495000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>669926000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>631768000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>626836000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>619681000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>619584000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>573908000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>553064000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>544426000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>521716000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>484437000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>480376000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>461402000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>450104000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>421429000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>411477000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>396678000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>1293000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1297000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1299000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1307000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1217000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1236000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1206000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1242000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1159000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1143000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1177000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1098000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>1533479000</v>
+      </c>
+      <c r="C19">
         <v>1839951000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1768700000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1773229000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1431888000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1391527000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1354964000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1327104000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1319249000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1288279000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1263316000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1252006000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1150507000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1105526000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1072066000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1074787000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1047690000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>954433000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>943925000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>962171000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>945276000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>934543000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>909341000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>916018000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>918683000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>844238000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>799410000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>800435000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>802583000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>755123000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>717447000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>697726000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>695624000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>636981000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>611220000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>597843000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>613971000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>551350000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>529948000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>520744000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>272000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>265000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>276000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>344954000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>349772000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>354591000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>359410000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>364229000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>369047000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>373866000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>378685000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>342000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>628924000</v>
+      </c>
+      <c r="C21">
         <v>624398000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>588221000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>556254000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>536984000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>521173000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>488581000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>437506000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>422185000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>389498000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>386438000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>391475000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>390223000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>391086000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>363271000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>352109000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>353136000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>299624000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>291675000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>274564000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>269279000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>267902000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>257777000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>245094000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>244322000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>238473000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>229332000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>222977000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>217962000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>209402000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>189481000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>176162000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>158554000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>152312000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>137062000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>126328000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>117622000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>109944000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>108278000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>93980000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>2973000</v>
+      </c>
+      <c r="C22">
         <v>2781000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2794000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2729000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2723000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2414000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1923000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1888000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1965000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>602000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>444000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>221000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>258000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>313000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>352000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>402000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>409000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>35000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>25000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>27000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>36000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>63000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>5554000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>5149000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>3256000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>4212000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>7215000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>5544000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1908000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>901000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>2407000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>2778000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3153000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3629000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>4112000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>4429000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>5000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>5346000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>70143000</v>
+      </c>
+      <c r="C23">
         <v>67710000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>73546000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>71417000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>77402000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>75236000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>84737000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>65333000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>61653000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>59511000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>49817000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>62751000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>62611000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>131853000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>117804000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>95530000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>81473000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>65892000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>59466000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>53770000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>51970000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>44589000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>41293000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>37051000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>35841000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>34138000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>30761000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>32190000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>31100000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>30136000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>25914000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>23217000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>23316000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>22718000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>22377000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>22661000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>24176000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>25202000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>21391000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>23006000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>969740100</v>
+      </c>
+      <c r="C24">
         <v>967265100</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>929604000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>906816000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1249659000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1245540000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1237988000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1184269000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1178500000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1157373000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1156142000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1190777000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>795395000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>523252000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>481427000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>448041000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>435018000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>365551000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>351166000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>328361000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>321285000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>312554000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>304624000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>287294000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>283419000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>276823000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>267308000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>260711000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>250970000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>240439000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>217802000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>202157000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>185023000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>178659000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>163551000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>153418000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>146798000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>140492000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>129669000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>116986000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>2503219000</v>
+      </c>
+      <c r="C25">
         <v>2807216000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2698304000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2680045000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2681547000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2637067000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2592952000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2511373000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2497749000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2445652000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2419458000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2442783000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1945902000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1628778000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1553493000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1522828000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1482708000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1319984000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1295091000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1290532000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1266561000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1247097000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1213965000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1203312000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1202102000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1121061000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1066718000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1061146000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1053553000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>995562000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>935249000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>899883000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>880647000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>815640000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>774771000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>751261000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>760769000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>691842000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>659617000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>637730000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>129060000</v>
+      </c>
+      <c r="C26">
         <v>91048000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>32851000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>82133000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>145189000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>192458000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>133994000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>39507000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>386236000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>305453000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>304526000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>223101000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>211217000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>142597000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>98722000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>29401000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>13277000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>20427000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>20008000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>21120000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>20029000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>17627000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>17532000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>19401000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>17280000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>13191000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>9996000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>25181000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>16055000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>10159000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>5987000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>20683000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>5105000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>15753000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>18712000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>21320000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>109949000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>262505000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>290143000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>294875000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>2476508000</v>
+      </c>
+      <c r="C27">
         <v>2404106000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2314760000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2337623000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2281387000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2187828000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2077110000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1987506000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2033209000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1945531000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1867868000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1797996000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1736617000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1638090000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1543253000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1457348000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1417904000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1287243000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1267950000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1226474000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1226627000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1229762000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1202533000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1180673000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1193761000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1185265000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1190386000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1169371000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1262983000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1321857000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1334470000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1313937000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1362712000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1363141000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1388836000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1400860000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1351669000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1283621000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1207390000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1139212000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>2582349000</v>
+      </c>
+      <c r="C28">
         <v>2468978000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2322985000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2397128000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2405361000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2360213000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2192169000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2007819000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2401590000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2232268000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2153899000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1998194000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1929458000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1761497000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1623782000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1467408000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1409188000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1285492000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1265975000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1226614000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1227178000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1229392000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1204607000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1184605000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1194993000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1185262000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>1187065000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1180994000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1262528000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1316728000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1327102000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1321396000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1355777000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1369310000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1400714000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1414939000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1454070000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1538712000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1488186000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1428179000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2582349000</v>
+      </c>
+      <c r="C29">
         <v>2468978000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2322985000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2397128000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2405361000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2360213000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2192169000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2007819000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2401590000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2232268000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2153899000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1998194000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1929458000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1761497000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1623782000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1467408000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1409188000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1285492000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1265975000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1226614000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1227178000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1229392000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1204607000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1184605000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1194993000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1185262000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1187065000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1180994000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1262528000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1316728000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1327102000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1321396000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1355777000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1369310000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1400714000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1414939000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1454070000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1538712000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1488186000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1428179000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>5085568000</v>
+      </c>
+      <c r="C30">
         <v>5276194000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5021289000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5077173000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5086908000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4997280000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>4785121000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>4519192000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4899339000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>4677920000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4573357000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4440977000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>3875360000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>3390275000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>3177275000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2990236000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2891896000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2605476000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2561066000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2517146000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2493739000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2476489000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2418572000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>2387917000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>2397095000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>2306323000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>2253783000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2242140000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>2316081000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2312290000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>2262351000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>2221279000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>2236424000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>2184950000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>2175485000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>2166200000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>2214839000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>2230554000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>2147803000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>2065909000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>60117000</v>
+      </c>
+      <c r="C31">
         <v>59860000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>59556000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>60465000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>60711000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>60652000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>60299000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>60052000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>61632000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>61099000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>61164000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>60629000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>60803000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>60367000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>60129000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>59695000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>60058000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>60215000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>60818000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>61115000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>61844000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>62594000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>63544000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>64111000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>64788000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>65315000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>66204000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>66981000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>68751000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>70138000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>71003000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>71655000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>72673000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>73390000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>74415000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>75200000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>76040000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>78090000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>78305000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>78380000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>323071800</v>
+      </c>
+      <c r="C32">
         <v>209695800</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>63034200</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>137177000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>144954100</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>143659900</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-17469700</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-201820100</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>537697900</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>373301900</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>294933000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>133203100</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>864079100</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>696117900</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>558402800</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>911443100</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>853223000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>729527000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>710009900</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>670649000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>671213000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>673426900</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>648642000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>628640000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>639027900</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>629296900</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>631099900</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>625028900</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>706563000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>760763000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>770145100</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>764439000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>798820100</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>812353000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>843757100</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>897327900</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>930343100</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1014985000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>1040387000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>980379900</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>-659754000</v>
+      </c>
+      <c r="C33">
         <v>-262794000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-118750000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-251724000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-494725000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-541560000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-394052900</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-264586000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-989840000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-821567000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-700430000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-423185000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-820218000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-972282000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-986486900</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-1313777000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-1132596000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-1039412000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-1084500000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-1024673000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-1004556000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-1016928000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-1014248000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-1014624000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-973843000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-882395000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-810708000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-775005000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-791502000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-774342000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-797707000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-666467000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-654104000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-645379000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-611363000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-623760000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-578191000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-542143000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-551325000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-522848000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>621772000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>619591000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>635410000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>364229000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>369047000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>373866000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>378685000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>383504000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>388322000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>393141000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>397960000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>342000000</v>
       </c>
     </row>
